--- a/medicine/Enfance/Cécile_Schmitz/Cécile_Schmitz.xlsx
+++ b/medicine/Enfance/Cécile_Schmitz/Cécile_Schmitz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Schmitz</t>
+          <t>Cécile_Schmitz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cécile Schmitz, née en 1954, est une dessinatrice, scénariste et coloriste belge de bande dessinée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Schmitz</t>
+          <t>Cécile_Schmitz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cécile Schmitz naît en 1954 en Belgique[1]. C'est aux côtés d'Hachel qu'elle fait son entrée au journal Spirou en 1965 avec le court récit en 5 planches : Paix dans la vallée[2].
-Elle travaille pour le Journal de Tintin[3] avec des récits complets sur notamment des scénarios d'Yves Duval, de 1979 à 1980[1]. Elle scénarise le premier tome de la série Histoires de la vie des hommes : Antonine fille du Roy pour le dessinateur Bruno Le Sourd aux Éditions de la Pibole en 1979[4].
-Cécile Schmitz revient en 1983 à Spirou, où elle réalise le Dit de la Mouche de 1983 à 1986, en huit récits complets, chacun de neuf pages[2] ainsi que Conte Gothique un court récit de neuf planches également réalisé par Mazel. Elle y réalise ensuite les aventures de Pépé, sur un scénario de François Paradis alias Francis Planque[1], en récits complets de sept à dix pages, publiés en 1986 et 1987[2].
-Elle réalise aussi La Vie du Père Damien, publié en 1981 en album par Univers Média, puis redessiné en 1987[1], sous le titre L'Homme de Molokaï[5], avec des textes de Jacques Stoquart[6] aux éditions Dargaud en 1988 qui reçoit le prix Coccinelle en 1989[7]. Encore avec Stoquart, elle publie ensuite Nous n'irons pas à Jérusalem et La Vie d'Ignace de Loyola. Elle réalise également une bande dessinée éducative sur la sexualité, en 1989[6].
-Ensuite comme coloriste, Cécile Schmitz met en couleurs les deux albums de la série Johnny Congo, parus en 1992 et 1993 aux éditions Claude Lefrancq. Tout comme elle le fera pour les trois premiers tomes de Rouletabille de Swysen et Duchâteau[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cécile Schmitz naît en 1954 en Belgique. C'est aux côtés d'Hachel qu'elle fait son entrée au journal Spirou en 1965 avec le court récit en 5 planches : Paix dans la vallée.
+Elle travaille pour le Journal de Tintin avec des récits complets sur notamment des scénarios d'Yves Duval, de 1979 à 1980. Elle scénarise le premier tome de la série Histoires de la vie des hommes : Antonine fille du Roy pour le dessinateur Bruno Le Sourd aux Éditions de la Pibole en 1979.
+Cécile Schmitz revient en 1983 à Spirou, où elle réalise le Dit de la Mouche de 1983 à 1986, en huit récits complets, chacun de neuf pages ainsi que Conte Gothique un court récit de neuf planches également réalisé par Mazel. Elle y réalise ensuite les aventures de Pépé, sur un scénario de François Paradis alias Francis Planque, en récits complets de sept à dix pages, publiés en 1986 et 1987.
+Elle réalise aussi La Vie du Père Damien, publié en 1981 en album par Univers Média, puis redessiné en 1987, sous le titre L'Homme de Molokaï, avec des textes de Jacques Stoquart aux éditions Dargaud en 1988 qui reçoit le prix Coccinelle en 1989. Encore avec Stoquart, elle publie ensuite Nous n'irons pas à Jérusalem et La Vie d'Ignace de Loyola. Elle réalise également une bande dessinée éducative sur la sexualité, en 1989.
+Ensuite comme coloriste, Cécile Schmitz met en couleurs les deux albums de la série Johnny Congo, parus en 1992 et 1993 aux éditions Claude Lefrancq. Tout comme elle le fera pour les trois premiers tomes de Rouletabille de Swysen et Duchâteau.
 En outre, elle illustre la nouvelle de Jules Supervielle Le Bœuf et l'âne de la crèche, dans Je bouquine no 22 en 1985 .
-Cécile Schmitz participe comme coloriste des décors au dessin animé Joyeux Noël Petit Moonky ! réalisé par André Moons en 1997[9].
+Cécile Schmitz participe comme coloriste des décors au dessin animé Joyeux Noël Petit Moonky ! réalisé par André Moons en 1997.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Schmitz</t>
+          <t>Cécile_Schmitz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,12 +564,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>comme dessinatrice
-L'Homme de Moloka'i, Dargaud, Paris, janvier 1988Scénario : Jacques Stoquart - Dessin et couleurs : Cécile Schmitz -  (ISBN 2-87129-049-0),La vie du père Damien sur l'île des lépreux de Moloka'i.
+          <t>comme dessinatrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Homme de Moloka'i, Dargaud, Paris, janvier 1988Scénario : Jacques Stoquart - Dessin et couleurs : Cécile Schmitz -  (ISBN 2-87129-049-0),La vie du père Damien sur l'île des lépreux de Moloka'i.
 Ignace - Nous n'irons pas à Jérusalem, Hélyode, coll. « Coccinelle », Bruxelles, mai 1991Scénario : Jacques Stoquart - Dessin et couleurs : Cécile Schmitz -  (ISBN 2-87353-009-X)
-Énigme au Louvre, Conservart Éditions, mai 1991Scénario : Jean Clé - Dessin : Cécile Schmitz - Couleurs : quadrichromie -  (ISBN 2-930022-07-8),Cette aventure de Julien et Clarisse est offert par la Banque Paribas Belgique.
-comme scénariste
-Antonine fille du Roy, Éditions de la Pibole, avril 1979Scénario : Cécile Schmitz - Dessin : Bruno Le Sourd - Couleurs : quadrichromie -  (ISBN 286417006X)</t>
+Énigme au Louvre, Conservart Éditions, mai 1991Scénario : Jean Clé - Dessin : Cécile Schmitz - Couleurs : quadrichromie -  (ISBN 2-930022-07-8),Cette aventure de Julien et Clarisse est offert par la Banque Paribas Belgique.</t>
         </is>
       </c>
     </row>
@@ -565,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Schmitz</t>
+          <t>Cécile_Schmitz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,12 +597,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>comme scénariste</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Antonine fille du Roy, Éditions de la Pibole, avril 1979Scénario : Cécile Schmitz - Dessin : Bruno Le Sourd - Couleurs : quadrichromie -  (ISBN 286417006X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cécile_Schmitz</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Schmitz</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1989 :  prix Coccinelle avec Cécile Schmitz pour L'Homme de Moloka'i[7].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1989 :  prix Coccinelle avec Cécile Schmitz pour L'Homme de Moloka'i.</t>
         </is>
       </c>
     </row>
